--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhdo/Documents/Spring24/data mining/project/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5C7D7-275E-B04C-93E5-39CAE513F20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D7BA81-6180-554C-8AAC-C40E3A8097C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="16160" windowHeight="17460" activeTab="1" xr2:uid="{86796664-827E-0846-803A-07169251B7AA}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20340" windowHeight="17460" xr2:uid="{86796664-827E-0846-803A-07169251B7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="config_Mscore" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -409,22 +409,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,14 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,21 +759,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4506533-A9C3-804C-858E-F95667B470DF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -803,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,11 +841,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -876,109 +858,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE7A478-9054-3C44-A1A7-1047F09C7DB8}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1039,10 +1021,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1056,20 +1038,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1106,10 +1088,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
